--- a/Phòng kỹ thuật/SDS/DANH SÁCH SDS SẢN PHẨM.xlsx
+++ b/Phòng kỹ thuật/SDS/DANH SÁCH SDS SẢN PHẨM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phòng kỹ thuật\SDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\SDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB3239-97A0-4677-9619-5B42AD017118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A31AFE-7EFA-4054-8617-B2E06773FF16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="12435" windowHeight="5520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>

--- a/Phòng kỹ thuật/SDS/DANH SÁCH SDS SẢN PHẨM.xlsx
+++ b/Phòng kỹ thuật/SDS/DANH SÁCH SDS SẢN PHẨM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\SDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A31AFE-7EFA-4054-8617-B2E06773FF16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D19CCB-8779-4CF0-BBD5-3C54E9AA4B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="12435" windowHeight="5520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$185</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="377">
   <si>
     <t>CGCTHA-01</t>
   </si>
@@ -1154,13 +1154,19 @@
   </si>
   <si>
     <t>TDPE-29</t>
+  </si>
+  <si>
+    <t>ITS-507</t>
+  </si>
+  <si>
+    <t>H-507</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,6 +1203,12 @@
       <family val="2"/>
       <charset val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001A33"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1313,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1425,6 +1437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,11 +1781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J172" sqref="J172"/>
+      <pane ySplit="2" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6293,6 +6306,14 @@
     <row r="185" spans="1:9">
       <c r="B185" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="16.5">
+      <c r="B186" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" s="47" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/Phòng kỹ thuật/SDS/DANH SÁCH SDS SẢN PHẨM.xlsx
+++ b/Phòng kỹ thuật/SDS/DANH SÁCH SDS SẢN PHẨM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\SDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D19CCB-8779-4CF0-BBD5-3C54E9AA4B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF82B1CD-4DBC-4B56-A4C6-364BB44EFE30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="12435" windowHeight="5520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,10 +1434,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,8 +1784,8 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1803,17 +1803,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="29.25" customHeight="1">
@@ -6312,7 +6312,7 @@
       <c r="B186" t="s">
         <v>376</v>
       </c>
-      <c r="C186" s="47" t="s">
+      <c r="C186" s="46" t="s">
         <v>375</v>
       </c>
     </row>
